--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -62,7 +62,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -450,13 +450,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="4">
         <v>3500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="4">
         <v>4500</v>
